--- a/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Email/2wise/0.8_.xlsx
+++ b/experiment_results/AGGREGATION_ARITHMETIC_MEAN_NORMALIZATION_ALPHA_BETA/Email/2wise/0.8_.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="53">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -56,22 +56,127 @@
     <t>FEATURE_SPACE</t>
   </si>
   <si>
-    <t>AutoResponder.EmailSystem.Client.COI_3</t>
+    <t>_MultipleBugs_.NOB_1.ID_25</t>
   </si>
   <si>
-    <t>.19</t>
+    <t>Base.EmailSystem.Client.74</t>
   </si>
   <si>
-    <t>AutoResponder.EmailSystem.Client.COI_2</t>
+    <t>_MultipleBugs_.NOB_1.ID_24</t>
   </si>
   <si>
-    <t>.14</t>
+    <t>_MultipleBugs_.NOB_1.ID_192</t>
   </si>
   <si>
-    <t>Forward.EmailSystem.Client.ROR_1</t>
+    <t>Encrypt.EmailSystem.Email.46</t>
   </si>
   <si>
-    <t>.33</t>
+    <t>_MultipleBugs_.NOB_1.ID_179</t>
+  </si>
+  <si>
+    <t>Encrypt.EmailSystem.Email.16</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_112</t>
+  </si>
+  <si>
+    <t>Base.EmailSystem.Email.29</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_196</t>
+  </si>
+  <si>
+    <t>Forward.EmailSystem.Client.33</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_185</t>
+  </si>
+  <si>
+    <t>Encrypt.EmailSystem.Email.36</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_81</t>
+  </si>
+  <si>
+    <t>Base.EmailSystem.Client.99</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_47</t>
+  </si>
+  <si>
+    <t>Base.EmailSystem.Client.89</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_232</t>
+  </si>
+  <si>
+    <t>Sign.EmailSystem.Email.33</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_2</t>
+  </si>
+  <si>
+    <t>AutoResponder.EmailSystem.Client.14</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_36</t>
+  </si>
+  <si>
+    <t>Base.EmailSystem.Client.88</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_261</t>
+  </si>
+  <si>
+    <t>Verify.EmailSystem.Email.25</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_226</t>
+  </si>
+  <si>
+    <t>Sign.EmailSystem.Email.28</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_233</t>
+  </si>
+  <si>
+    <t>Sign.EmailSystem.Email.38</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_259</t>
+  </si>
+  <si>
+    <t>Verify.EmailSystem.Email.20</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_3</t>
+  </si>
+  <si>
+    <t>AutoResponder.EmailSystem.Client.19</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_183</t>
+  </si>
+  <si>
+    <t>Encrypt.EmailSystem.Email.31</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_5</t>
+  </si>
+  <si>
+    <t>Base.EmailSystem.Client.21</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_186</t>
+  </si>
+  <si>
+    <t>Encrypt.EmailSystem.Email.41</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_44</t>
+  </si>
+  <si>
+    <t>_MultipleBugs_.NOB_1.ID_80</t>
   </si>
 </sst>
 </file>
@@ -403,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,25 +560,25 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>247</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>141</v>
       </c>
       <c r="J2">
         <v>247</v>
@@ -493,28 +598,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>133</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="I3">
         <v>108</v>
-      </c>
-      <c r="E3">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>246</v>
-      </c>
-      <c r="H3">
-        <v>247</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
       </c>
       <c r="J3">
         <v>247</v>
@@ -531,42 +636,821 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>247</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>208</v>
+      </c>
+      <c r="M6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>247</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>247</v>
-      </c>
-      <c r="I4">
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>208</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>247</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>247</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>184</v>
+      </c>
+      <c r="M10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>247</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>247</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>199</v>
+      </c>
+      <c r="M13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>247</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>247</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>247</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>247</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>247</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>111</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>247</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>247</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>199</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>247</v>
-      </c>
-      <c r="K4">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>247</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>247</v>
+      </c>
+      <c r="K23">
         <v>14</v>
       </c>
-      <c r="L4">
-        <v>247</v>
-      </c>
-      <c r="M4">
+      <c r="L23">
+        <v>247</v>
+      </c>
+      <c r="M23">
         <v>247</v>
       </c>
     </row>
@@ -577,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -629,34 +1513,34 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>247</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="J2">
         <v>247</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="M2">
         <v>247</v>
@@ -667,37 +1551,37 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>247</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>247</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>247</v>
@@ -705,42 +1589,821 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>247</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>247</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>247</v>
-      </c>
-      <c r="I4">
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>208</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>247</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>247</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+      <c r="M10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>247</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>247</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>247</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>247</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>247</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>247</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>247</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>247</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>247</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>247</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>247</v>
-      </c>
-      <c r="M4">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>247</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>247</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>160</v>
+      </c>
+      <c r="M23">
         <v>247</v>
       </c>
     </row>
@@ -751,7 +2414,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -803,34 +2466,34 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>247</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>247</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="M2">
         <v>247</v>
@@ -841,37 +2504,37 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>247</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J3">
         <v>247</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="M3">
         <v>247</v>
@@ -879,42 +2542,821 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>247</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>247</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>247</v>
-      </c>
-      <c r="I4">
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>208</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>247</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>247</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>85</v>
+      </c>
+      <c r="M10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>247</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>247</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>247</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>247</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>247</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>247</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>247</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>247</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>247</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>247</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>247</v>
-      </c>
-      <c r="M4">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>247</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>247</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>160</v>
+      </c>
+      <c r="M23">
         <v>247</v>
       </c>
     </row>
@@ -925,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -977,25 +3419,25 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>247</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>141</v>
       </c>
       <c r="J2">
         <v>247</v>
@@ -1015,28 +3457,28 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>133</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>247</v>
+      </c>
+      <c r="I3">
         <v>108</v>
-      </c>
-      <c r="E3">
-        <v>109</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>246</v>
-      </c>
-      <c r="H3">
-        <v>247</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
       </c>
       <c r="J3">
         <v>247</v>
@@ -1053,42 +3495,821 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>247</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>208</v>
+      </c>
+      <c r="M6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>247</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>247</v>
-      </c>
-      <c r="I4">
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>208</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>247</v>
+      </c>
+      <c r="I10">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>247</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
+      <c r="L10">
+        <v>184</v>
+      </c>
+      <c r="M10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>247</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>247</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>199</v>
+      </c>
+      <c r="M13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>247</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>247</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>247</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>247</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>247</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>111</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>247</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>247</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>199</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>247</v>
-      </c>
-      <c r="K4">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>247</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>247</v>
+      </c>
+      <c r="K23">
         <v>14</v>
       </c>
-      <c r="L4">
-        <v>247</v>
-      </c>
-      <c r="M4">
+      <c r="L23">
+        <v>247</v>
+      </c>
+      <c r="M23">
         <v>247</v>
       </c>
     </row>
@@ -1099,7 +4320,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1151,34 +4372,34 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>247</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="J2">
         <v>247</v>
       </c>
       <c r="K2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>247</v>
+        <v>126</v>
       </c>
       <c r="M2">
         <v>247</v>
@@ -1189,37 +4410,37 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>246</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>247</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>247</v>
       </c>
       <c r="K3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L3">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="M3">
         <v>247</v>
@@ -1227,42 +4448,821 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>247</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>247</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D4">
-        <v>132</v>
-      </c>
-      <c r="E4">
-        <v>133</v>
-      </c>
-      <c r="F4">
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>247</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>247</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
+      </c>
+      <c r="M6">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>141</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>247</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>247</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>247</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>247</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>34</v>
+      </c>
+      <c r="M8">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="G4">
-        <v>246</v>
-      </c>
-      <c r="H4">
-        <v>247</v>
-      </c>
-      <c r="I4">
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>63</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>208</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>247</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>247</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+      <c r="M10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>247</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>247</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>39</v>
+      </c>
+      <c r="M11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>109</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>247</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>247</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>247</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>247</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>232</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>247</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>39</v>
+      </c>
+      <c r="M14">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>247</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>247</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>39</v>
+      </c>
+      <c r="M15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>247</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>247</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>247</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>247</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>117</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>247</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>247</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>14</v>
+      </c>
+      <c r="M18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>247</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>247</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>34</v>
+      </c>
+      <c r="M19">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>124</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>247</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>247</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>85</v>
+      </c>
+      <c r="M20">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>247</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>247</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>247</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>247</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>85</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>247</v>
-      </c>
-      <c r="K4">
-        <v>14</v>
-      </c>
-      <c r="L4">
-        <v>247</v>
-      </c>
-      <c r="M4">
+      <c r="D23">
+        <v>93</v>
+      </c>
+      <c r="E23">
+        <v>91</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>247</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>247</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>160</v>
+      </c>
+      <c r="M23">
         <v>247</v>
       </c>
     </row>
